--- a/人力问答-孙玺-20231226.xlsx
+++ b/人力问答-孙玺-20231226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\TopExpert\hrbp_qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234C4C6-44BB-4A9C-9120-9EF9910AE3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C15FE7-D052-46B1-AA2C-AA2116B85DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="344">
   <si>
     <t>另外一个问题是</t>
   </si>
@@ -1025,13 +1025,7 @@
     <t>病假相关要求及待遇说明</t>
   </si>
   <si>
-    <t>一、病假休假条件：1）员工非因工负伤或因病需停工治疗的，可申请病假；2）结合公司实际，以及病假的相关要求，具体申请材料如下：小于等于一天需提供：①具有医疗资质的机构开具的挂号单②诊断证明或缴费凭证；大于一天小于等于七天需提供：①县（区）级以上医院就诊挂号单②医院出具的建议休息证明及病历证明；大于七天需提供：①二级以上公立医院就诊挂号单②医院出具的建议休假证明及病历证明；备注：①病历证明、医生建议病休证明须加盖医院公章；②因手术需长期住院者，还需提供加盖“医院公章”的出院小结；③申请病假可上传材料的扫描件或照片。二、病假期间工资、待遇说明：根据《青岛市企业工资支付规定》，员工因病或者非因工负伤停止工作，按照以下标准支付病假工资或疾病救济费：1）在规定的医疗期内，停工医疗累计不超过6个月的，发给员工工资70%的病假工资；2）在规定的医疗期内，停工医疗累计超过6个月的，发给员工工资60%的疾病救济费；3）医疗期满，员工不能从事由公司另行安排的工作，但公司与员工保留劳动关系的，按不低于青岛市当地最低工资标准的80%支付疾病救济费。4）病假工资和疾病救济费最低不得低于青岛市最低工资标准的80%，最高不超过公司上年度员工月平均工资。本条中所称员工工资，是指员工患病前12个月的月平均工资。按实际工作月数的月平均工资计算。月平均工资不包括年终奖及公司规定的各项补贴。三、病假医疗期规定：1）根据《企业职工患病或非因工负伤医疗期规定》，员工因患病或非因工负伤需要停止工作医疗时，病假医疗期时间规定如下：参加工作未满十年，在公司服务未满五年，最长医疗期3个月；参加工作未满十年，在公司服务五年及以上，最长医疗期6个月；参加工作十年以上，在公司服务五到十年（含五年），最长医疗期9个月；参加工作十年以上，在公司服务十到十五年（含十年），最长医疗期12个月；参加工作十年以上，在公司服务十五到二十年（含十五年），最长医疗期18个月；参加工作十年以上，在公司服务二十年以上（含二十年），最长医疗期24个月；2）公司视员工原岗位工作情况，为员工提供原岗位或竞岗机会，但员工仍要求休假的视为员工不能从事原工作或也不能从事另行安排工作，公司有权采取包括解除劳动合同等相关措施；3）医疗期满，员工不得继续申请病假。对某些患特殊疾病(如癌症、精神病、瘫痪等)的员工在24个月内尚不能痊愈的，经所在一级部门AT/一级部门长与HRBP/CHO讨论决定，可以适当延长医疗期，但最长不得超过6个月；4）员工临近劳动合同期满请病假的，累计医疗期未满而劳动合同期已满，且需停工休息治疗的，根据劳部发[1995]309号文《关于贯彻执行&lt;中华人民共和国劳动法&gt;若干问题的意见》第34条的规定，劳动合同期限自动延续至医疗期期满为止，在医疗期内医疗终结的，医疗终结之日即可终止劳动合同；5）员工在规定的医疗期满后不能从事原工作，也不能从事由公司另行安排的工作的，应当由劳动鉴定委员会参照工伤与职业病致残程度鉴定标准进行劳动能力的鉴定。被鉴定为一至四级的，应当退出劳动岗位，终止劳动关系，办理因病或非因工负伤退休退职手续，享受相应的退休退职待遇。</t>
-  </si>
-  <si>
     <t>病假休假具体要求</t>
-  </si>
-  <si>
-    <t>1）员工应根据病休证明上的就诊日期及医生建议的病休时间申请病假，病假时长按自然日计算，包含公休日、法定假日；2）公司对员工提交的病休证明有异议的，有权要求员工到指定医院复查，员工无正当理由拒绝复查的，公司不予批准病假申请。如员工提交的病假申请材料与公司指定医院/医生的意见存在分歧，公司将以公司指定医院/医生的意见为准；3）员工患急性疾病或不可预测负伤，必须在患病第一天通过企业微信及时告知直接主管，事后补交上述规定的病假申请材料，但须在返回工作岗位的第一天立即通过人力管理系统进行假期补录（自请假之日起一个自然月内）；4）员工在未得到直接主管批准的情况下以生病为由擅自休息视为旷工；5）员工以生病为由休息，不按照规定及时递交病假申请材料，并取得直接主管批准的视为旷工；6）员工弄虚作假，包括但不限于虚开医院证明视为严重违反劳动纪律，一经查实，公司有权采取解除劳动合同等措施。</t>
   </si>
   <si>
     <r>
@@ -1987,10 +1981,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哺乳假、护理假、育儿假等假期相关要求及待遇说明</t>
+    <t>哺乳假相关要求及待遇说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>护理假相关要求及待遇说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>育儿假相关要求及待遇说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1999,7 +2001,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>一、哺乳假、护理假、育儿假等休假期间工资、待遇说明：</t>
+      <t>一、哺乳假期间工资、待遇说明：哺乳假为带薪假期，员工享有全额工资以及补贴，过期未休者，无补贴，无补休。
+二、哺乳假适用情况及证明材料：女员工哺乳未满</t>
     </r>
     <r>
       <rPr>
@@ -2018,8 +2021,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>）哺乳假、护理假、育儿假等均为带薪假期，员工享有全额工资以及补贴。2）上述假期过期未休者，无补贴，无补休。
-二、哺乳假适用情况及证明材料：女员工哺乳未满</t>
+      <t>周岁婴儿的，每天享有</t>
     </r>
     <r>
       <rPr>
@@ -2038,7 +2040,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>周岁婴儿的，每天享有</t>
+      <t>小时哺乳时间；生育多胞胎的，每多哺乳</t>
     </r>
     <r>
       <rPr>
@@ -2057,7 +2059,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>小时哺乳时间；生育多胞胎的，每多哺乳</t>
+      <t>个婴儿每天增加</t>
     </r>
     <r>
       <rPr>
@@ -2076,17 +2078,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>个婴儿每天增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
+      <t>小时哺乳时间。需提供婴儿出生证明。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2095,7 +2091,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>小时哺乳时间。需提供婴儿出生证明。</t>
+      <t>一、护理假休假期间工资、待遇说明：护理假为带薪假期，员工享有全额工资以及补贴，过期未休者，无补贴，无补休。</t>
     </r>
     <r>
       <rPr>
@@ -2115,7 +2111,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>三、护理假（男方）申请条件及证明材料：符合法律、法规规定生育子女的夫妻，转正男性员工在职期间可申请护理假</t>
+      <t>二、护理假（男方）申请条件及证明材料：符合法律、法规规定生育子女的夫妻，转正男性员工在职期间可申请护理假</t>
     </r>
     <r>
       <rPr>
@@ -2174,16 +2170,9 @@
       </rPr>
       <t>婴儿出生证明或预产期证明。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2192,7 +2181,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>四、育儿假适用情况及证明材料：三周岁以下婴幼儿父母各享受每年累计不少于</t>
+      <t>一、育儿假期间工资、待遇说明：育儿假为带薪假期，员工享有全额工资以及补贴，过期未休者，无补贴，无补休。
+二、育儿假适用情况及证明材料：三周岁以下婴幼儿父母各享受每年累计不少于</t>
     </r>
     <r>
       <rPr>
@@ -2211,7 +2201,988 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>日育儿假。当年有效。需提供婴儿出生证明。</t>
+      <t>日育儿假，当年有效。需提供婴儿出生证明。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、病假休假条件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工非因工负伤或因病需停工治疗的，可申请病假；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）结合公司实际，以及病假的相关要求，具体申请材料如下：小于等于一天需提供：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具有医疗资质的机构开具的挂号单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诊断证明或缴费凭证；大于一天小于等于七天需提供：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>县（区）级以上医院就诊挂号单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院出具的建议休息证明及病历证明；大于七天需提供：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级以上公立医院就诊挂号单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医院出具的建议休假证明及病历证明；备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病历证明、医生建议病休证明须加盖医院公章；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因手术需长期住院者，还需提供加盖“医院公章”的出院小结；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请病假可上传材料的扫描件或照片。
+二、病假期间工资、待遇说明：根据《青岛市企业工资支付规定》，员工因病或者非因工负伤停止工作，按照以下标准支付病假工资或疾病救济费：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）在规定的医疗期内，停工医疗累计不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月的，发给员工工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的病假工资；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）在规定的医疗期内，停工医疗累计超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月的，发给员工工资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>60%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的疾病救济费；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）医疗期满，员工不能从事由公司另行安排的工作，但公司与员工保留劳动关系的，按不低于青岛市当地最低工资标准的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付疾病救济费。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）病假工资和疾病救济费最低不得低于青岛市最低工资标准的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最高不超过公司上年度员工月平均工资。本条中所称员工工资，是指员工患病前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月的月平均工资。按实际工作月数的月平均工资计算。月平均工资不包括年终奖及公司规定的各项补贴。
+三、病假医疗期规定：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）根据《企业职工患病或非因工负伤医疗期规定》，员工因患病或非因工负伤需要停止工作医疗时，病假医疗期时间规定如下：参加工作未满十年，在公司服务未满五年，最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；参加工作未满十年，在公司服务五年及以上，最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；参加工作十年以上，在公司服务五到十年（含五年），最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；参加工作十年以上，在公司服务十到十五年（含十年），最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；参加工作十年以上，在公司服务十五到二十年（含十五年），最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；参加工作十年以上，在公司服务二十年以上（含二十年），最长医疗期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）公司视员工原岗位工作情况，为员工提供原岗位或竞岗机会，但员工仍要求休假的视为员工不能从事原工作或也不能从事另行安排工作，公司有权采取包括解除劳动合同等相关措施；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）医疗期满，员工不得继续申请病假。对某些患特殊疾病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如癌症、精神病、瘫痪等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的员工在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月内尚不能痊愈的，经所在一级部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级部门长与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HRBP/CHO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论决定，可以适当延长医疗期，但最长不得超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工临近劳动合同期满请病假的，累计医疗期未满而劳动合同期已满，且需停工休息治疗的，根据劳部发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1995]309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号文《关于贯彻执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中华人民共和国劳动法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若干问题的意见》第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条的规定，劳动合同期限自动延续至医疗期期满为止，在医疗期内医疗终结的，医疗终结之日即可终止劳动合同；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工在规定的医疗期满后不能从事原工作，也不能从事由公司另行安排的工作的，应当由劳动鉴定委员会参照工伤与职业病致残程度鉴定标准进行劳动能力的鉴定。被鉴定为一至四级的，应当退出劳动岗位，终止劳动关系，办理因病或非因工负伤退休退职手续，享受相应的退休退职待遇。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工应根据病休证明上的就诊日期及医生建议的病休时间申请病假，病假时长按自然日计算，包含公休日、法定假日；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）公司对员工提交的病休证明有异议的，有权要求员工到指定医院复查，员工无正当理由拒绝复查的，公司不予批准病假申请。如员工提交的病假申请材料与公司指定医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生的意见存在分歧，公司将以公司指定医院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医生的意见为准；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工患急性疾病或不可预测负伤，必须在患病第一天通过企业微信及时告知直接主管，事后补交上述规定的病假申请材料，但须在返回工作岗位的第一天立即通过人力管理系统进行假期补录（自请假之日起一个自然月内）；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工在未得到直接主管批准的情况下以生病为由擅自休息视为旷工；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工以生病为由休息，不按照规定及时递交病假申请材料，并取得直接主管批准的视为旷工；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）员工弄虚作假，包括但不限于虚开医院证明视为严重违反劳动纪律，一经查实，公司有权采取解除劳动合同等措施。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2618,10 +3589,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3955,7 +4926,7 @@
         <v>326</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,47 +4939,63 @@
     </row>
     <row r="168" spans="1:2" s="1" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="1" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:2" s="1" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:2" s="1" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="1" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B173" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
